--- a/data/Salmon_blocks.xlsx
+++ b/data/Salmon_blocks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sigve Borgmo\Master\dynamic-factor\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65CF6F97-A427-4DCB-AF16-190DE98E9979}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB6C3B6D-A9E8-4540-9771-21841245CFA8}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" tabRatio="724" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" tabRatio="724" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="B6" sheetId="15" r:id="rId1"/>
@@ -1137,8 +1137,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:K101"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:K5"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -12463,8 +12463,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28EF1E53-11F5-46EC-97C1-CBBB9E676D69}">
   <dimension ref="A1:X101"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -12525,13 +12525,13 @@
         <v>5</v>
       </c>
       <c r="G2" s="16">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H2" s="16">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I2" s="16">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J2" s="16"/>
       <c r="K2" s="16"/>

--- a/data/Salmon_blocks.xlsx
+++ b/data/Salmon_blocks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sigve Borgmo\Master\dynamic-factor\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB6C3B6D-A9E8-4540-9771-21841245CFA8}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F916018-990F-43C9-8D29-400D90F66B49}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" tabRatio="724" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="866" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="868" uniqueCount="115">
   <si>
     <t>Rapeseed oil</t>
   </si>
@@ -371,6 +371,12 @@
   </si>
   <si>
     <t>Marine</t>
+  </si>
+  <si>
+    <t>GA4</t>
+  </si>
+  <si>
+    <t>GA5</t>
   </si>
 </sst>
 </file>
@@ -779,22 +785,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>312420</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>93250</xdr:rowOff>
+      <xdr:colOff>236220</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>41037</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>442156</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>68580</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>5334</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>105561</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3">
+        <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EDE46DC0-024F-4C74-A13E-C36BE211EDB5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BDF8A52E-3B7C-4CC3-8F42-BF366E5F8272}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -810,8 +816,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2827020" y="1144810"/>
-          <a:ext cx="9296596" cy="4532090"/>
+          <a:off x="2750820" y="1267857"/>
+          <a:ext cx="10155174" cy="4971804"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12463,8 +12469,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28EF1E53-11F5-46EC-97C1-CBBB9E676D69}">
   <dimension ref="A1:X101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -12505,6 +12511,12 @@
       <c r="I1" s="9" t="s">
         <v>110</v>
       </c>
+      <c r="J1" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="2" spans="1:24" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14">
@@ -12533,8 +12545,12 @@
       <c r="I2" s="16">
         <v>6</v>
       </c>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
+      <c r="J2" s="16">
+        <v>6</v>
+      </c>
+      <c r="K2" s="16">
+        <v>6</v>
+      </c>
       <c r="L2" s="16"/>
       <c r="M2" s="16"/>
       <c r="N2" s="16"/>
@@ -12576,8 +12592,12 @@
       <c r="I3" s="9">
         <v>40</v>
       </c>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
+      <c r="J3" s="9">
+        <v>40</v>
+      </c>
+      <c r="K3" s="9">
+        <v>40</v>
+      </c>
       <c r="L3" s="9"/>
       <c r="M3" s="9"/>
       <c r="N3" s="9"/>
@@ -12613,8 +12633,12 @@
       <c r="I4" s="9">
         <v>57</v>
       </c>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
+      <c r="J4" s="9">
+        <v>64</v>
+      </c>
+      <c r="K4" s="9">
+        <v>99</v>
+      </c>
       <c r="L4" s="9"/>
       <c r="M4" s="9"/>
       <c r="N4" s="9"/>
@@ -12650,7 +12674,9 @@
       <c r="I5" s="9">
         <v>34</v>
       </c>
-      <c r="J5" s="9"/>
+      <c r="J5" s="9">
+        <v>65</v>
+      </c>
       <c r="K5" s="9"/>
       <c r="L5" s="9"/>
       <c r="M5" s="9"/>
@@ -12687,7 +12713,9 @@
       <c r="I6" s="9">
         <v>28</v>
       </c>
-      <c r="J6" s="9"/>
+      <c r="J6" s="9">
+        <v>66</v>
+      </c>
       <c r="K6" s="9"/>
       <c r="L6" s="9"/>
       <c r="M6" s="9"/>
@@ -13663,7 +13691,7 @@
       </c>
       <c r="C40" s="11">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D40" s="1"/>
     </row>
@@ -13972,7 +14000,7 @@
       </c>
       <c r="C64" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
@@ -13984,7 +14012,7 @@
       </c>
       <c r="C65" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
@@ -13996,7 +14024,7 @@
       </c>
       <c r="C66" s="11">
         <f t="shared" ref="C66:C101" si="1">COUNTIF($G$3:$AE$100, A66)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
@@ -14394,7 +14422,7 @@
       </c>
       <c r="C99" s="11">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">

--- a/data/Salmon_blocks.xlsx
+++ b/data/Salmon_blocks.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sigve Borgmo\Master\dynamic-factor\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F916018-990F-43C9-8D29-400D90F66B49}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CBEDAB1-8707-462C-A45C-543A8F9D962C}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" tabRatio="724" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,8 @@
     <sheet name="G3" sheetId="22" r:id="rId5"/>
     <sheet name="G4" sheetId="23" r:id="rId6"/>
     <sheet name="G5" sheetId="24" r:id="rId7"/>
-    <sheet name="G6" sheetId="25" r:id="rId8"/>
+    <sheet name="All" sheetId="26" r:id="rId8"/>
+    <sheet name="G6" sheetId="25" r:id="rId9"/>
   </sheets>
   <calcPr calcId="179017"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="868" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="974" uniqueCount="116">
   <si>
     <t>Rapeseed oil</t>
   </si>
@@ -378,6 +379,9 @@
   <si>
     <t>GA5</t>
   </si>
+  <si>
+    <t>Supply</t>
+  </si>
 </sst>
 </file>
 
@@ -447,7 +451,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -481,11 +485,24 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="9">
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7C80"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color theme="0"/>
@@ -785,15 +802,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>236220</xdr:colOff>
+      <xdr:colOff>267996</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>41037</xdr:rowOff>
+      <xdr:rowOff>76199</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>5334</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>105561</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>546353</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>143660</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -816,8 +833,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2750820" y="1267857"/>
-          <a:ext cx="10155174" cy="4971804"/>
+          <a:off x="2782596" y="1303019"/>
+          <a:ext cx="9445217" cy="4624221"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2545,7 +2562,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:C101">
-    <cfRule type="expression" dxfId="7" priority="3">
+    <cfRule type="expression" dxfId="8" priority="3">
       <formula>$C1=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4527,7 +4544,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:C101">
-    <cfRule type="expression" dxfId="6" priority="2">
+    <cfRule type="expression" dxfId="7" priority="2">
       <formula>$C1=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6507,7 +6524,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:C101">
-    <cfRule type="expression" dxfId="5" priority="2">
+    <cfRule type="expression" dxfId="6" priority="2">
       <formula>$C1=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8488,7 +8505,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:C101">
-    <cfRule type="expression" dxfId="4" priority="2">
+    <cfRule type="expression" dxfId="5" priority="2">
       <formula>$C1=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10473,7 +10490,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:C101">
-    <cfRule type="expression" dxfId="3" priority="2">
+    <cfRule type="expression" dxfId="4" priority="2">
       <formula>$C1=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12456,7 +12473,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:C101">
-    <cfRule type="expression" dxfId="2" priority="2">
+    <cfRule type="expression" dxfId="3" priority="2">
       <formula>$C1=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12469,8 +12486,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28EF1E53-11F5-46EC-97C1-CBBB9E676D69}">
   <dimension ref="A1:X101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -14463,7 +14480,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:C101">
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="2" priority="2">
       <formula>$C1=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14473,6 +14490,2243 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E07FA13-BE06-4570-B81B-486B446535AE}">
+  <dimension ref="A1:X103"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G94" sqref="G94"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="26.5546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="4.6640625" style="12" customWidth="1"/>
+    <col min="4" max="4" width="1.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5546875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="6.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.88671875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3">
+        <v>1</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="11">
+        <f>COUNTIF($G$3:$AE$100, A1)</f>
+        <v>1</v>
+      </c>
+      <c r="D1" s="1"/>
+      <c r="F1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+    </row>
+    <row r="2" spans="1:24" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="14">
+        <v>2</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" s="11">
+        <f t="shared" ref="C2:C65" si="0">COUNTIF($G$3:$AE$100, A2)</f>
+        <v>1</v>
+      </c>
+      <c r="D2" s="15"/>
+      <c r="E2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="7">
+        <v>5</v>
+      </c>
+      <c r="G2" s="16">
+        <v>6</v>
+      </c>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="16"/>
+      <c r="O2" s="16"/>
+      <c r="P2" s="16"/>
+      <c r="Q2" s="16"/>
+      <c r="R2" s="16"/>
+      <c r="S2" s="16"/>
+      <c r="T2" s="16"/>
+      <c r="U2" s="16"/>
+      <c r="V2" s="16"/>
+      <c r="W2" s="16"/>
+      <c r="X2" s="16"/>
+    </row>
+    <row r="3" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>3</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" s="11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="17">
+        <v>1</v>
+      </c>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="9"/>
+      <c r="P3" s="9"/>
+      <c r="Q3" s="9"/>
+      <c r="R3" s="9"/>
+      <c r="S3" s="9"/>
+      <c r="T3" s="9"/>
+      <c r="U3" s="9"/>
+      <c r="V3" s="9"/>
+      <c r="W3" s="9"/>
+      <c r="X3" s="9"/>
+    </row>
+    <row r="4" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="14">
+        <v>4</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" s="11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="G4" s="9">
+        <v>2</v>
+      </c>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
+      <c r="P4" s="9"/>
+      <c r="Q4" s="9"/>
+      <c r="R4" s="9"/>
+      <c r="S4" s="9"/>
+      <c r="T4" s="9"/>
+      <c r="U4" s="9"/>
+      <c r="V4" s="9"/>
+      <c r="W4" s="9"/>
+      <c r="X4" s="9"/>
+    </row>
+    <row r="5" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>5</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" s="11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="G5" s="17">
+        <v>3</v>
+      </c>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="9"/>
+      <c r="P5" s="9"/>
+      <c r="Q5" s="9"/>
+      <c r="R5" s="9"/>
+      <c r="S5" s="9"/>
+      <c r="T5" s="9"/>
+      <c r="U5" s="9"/>
+      <c r="V5" s="9"/>
+      <c r="W5" s="9"/>
+      <c r="X5" s="9"/>
+    </row>
+    <row r="6" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="14">
+        <v>6</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6" s="11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="G6" s="9">
+        <v>4</v>
+      </c>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="9"/>
+      <c r="P6" s="9"/>
+      <c r="Q6" s="9"/>
+      <c r="R6" s="9"/>
+      <c r="S6" s="9"/>
+      <c r="T6" s="9"/>
+      <c r="U6" s="9"/>
+      <c r="V6" s="9"/>
+      <c r="W6" s="9"/>
+      <c r="X6" s="9"/>
+    </row>
+    <row r="7" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>7</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C7" s="11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="G7" s="17">
+        <v>5</v>
+      </c>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="9"/>
+      <c r="P7" s="9"/>
+      <c r="Q7" s="9"/>
+      <c r="R7" s="9"/>
+      <c r="S7" s="9"/>
+      <c r="T7" s="9"/>
+      <c r="U7" s="9"/>
+      <c r="V7" s="9"/>
+      <c r="W7" s="9"/>
+      <c r="X7" s="9"/>
+    </row>
+    <row r="8" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="14">
+        <v>8</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C8" s="11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="G8" s="9">
+        <v>6</v>
+      </c>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="9"/>
+      <c r="P8" s="9"/>
+      <c r="Q8" s="9"/>
+      <c r="R8" s="9"/>
+      <c r="S8" s="9"/>
+      <c r="T8" s="9"/>
+      <c r="U8" s="9"/>
+      <c r="V8" s="9"/>
+      <c r="W8" s="9"/>
+      <c r="X8" s="9"/>
+    </row>
+    <row r="9" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>9</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C9" s="11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="G9" s="17">
+        <v>7</v>
+      </c>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="9"/>
+      <c r="P9" s="9"/>
+      <c r="Q9" s="9"/>
+      <c r="R9" s="9"/>
+      <c r="S9" s="9"/>
+      <c r="T9" s="9"/>
+      <c r="U9" s="9"/>
+      <c r="V9" s="9"/>
+      <c r="W9" s="9"/>
+      <c r="X9" s="9"/>
+    </row>
+    <row r="10" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="14">
+        <v>10</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C10" s="11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="G10" s="9">
+        <v>8</v>
+      </c>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+      <c r="O10" s="9"/>
+      <c r="P10" s="9"/>
+      <c r="Q10" s="9"/>
+      <c r="R10" s="9"/>
+      <c r="S10" s="9"/>
+      <c r="T10" s="9"/>
+      <c r="U10" s="9"/>
+      <c r="V10" s="9"/>
+      <c r="W10" s="9"/>
+      <c r="X10" s="9"/>
+    </row>
+    <row r="11" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>11</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C11" s="11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="G11" s="17">
+        <v>9</v>
+      </c>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="9"/>
+      <c r="O11" s="9"/>
+      <c r="P11" s="9"/>
+      <c r="Q11" s="9"/>
+      <c r="R11" s="9"/>
+      <c r="S11" s="9"/>
+      <c r="T11" s="9"/>
+      <c r="U11" s="9"/>
+      <c r="V11" s="9"/>
+      <c r="W11" s="9"/>
+      <c r="X11" s="9"/>
+    </row>
+    <row r="12" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="14">
+        <v>12</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C12" s="11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="G12" s="9">
+        <v>10</v>
+      </c>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="9"/>
+      <c r="P12" s="9"/>
+      <c r="Q12" s="9"/>
+      <c r="R12" s="9"/>
+      <c r="S12" s="9"/>
+      <c r="T12" s="9"/>
+      <c r="U12" s="9"/>
+      <c r="V12" s="9"/>
+      <c r="W12" s="9"/>
+      <c r="X12" s="9"/>
+    </row>
+    <row r="13" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>13</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C13" s="11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D13" s="1"/>
+      <c r="G13" s="17">
+        <v>11</v>
+      </c>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="9"/>
+      <c r="P13" s="9"/>
+      <c r="Q13" s="9"/>
+      <c r="R13" s="9"/>
+      <c r="S13" s="9"/>
+      <c r="T13" s="9"/>
+      <c r="U13" s="9"/>
+      <c r="V13" s="9"/>
+      <c r="W13" s="9"/>
+      <c r="X13" s="9"/>
+    </row>
+    <row r="14" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="14">
+        <v>14</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C14" s="11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="G14" s="9">
+        <v>12</v>
+      </c>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="9"/>
+      <c r="P14" s="9"/>
+      <c r="Q14" s="9"/>
+      <c r="R14" s="9"/>
+      <c r="S14" s="9"/>
+      <c r="T14" s="9"/>
+      <c r="U14" s="9"/>
+      <c r="V14" s="9"/>
+      <c r="W14" s="9"/>
+      <c r="X14" s="9"/>
+    </row>
+    <row r="15" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>15</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C15" s="11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D15" s="1"/>
+      <c r="G15" s="17">
+        <v>13</v>
+      </c>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="9"/>
+      <c r="O15" s="9"/>
+      <c r="P15" s="9"/>
+      <c r="Q15" s="9"/>
+      <c r="R15" s="9"/>
+      <c r="S15" s="9"/>
+      <c r="T15" s="9"/>
+      <c r="U15" s="9"/>
+      <c r="V15" s="9"/>
+      <c r="W15" s="9"/>
+      <c r="X15" s="9"/>
+    </row>
+    <row r="16" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="14">
+        <v>16</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C16" s="11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D16" s="1"/>
+      <c r="G16" s="9">
+        <v>14</v>
+      </c>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="9"/>
+      <c r="O16" s="9"/>
+      <c r="P16" s="9"/>
+      <c r="Q16" s="9"/>
+      <c r="R16" s="9"/>
+      <c r="S16" s="9"/>
+      <c r="T16" s="9"/>
+      <c r="U16" s="9"/>
+      <c r="V16" s="9"/>
+      <c r="W16" s="9"/>
+      <c r="X16" s="9"/>
+    </row>
+    <row r="17" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>17</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C17" s="11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D17" s="1"/>
+      <c r="G17" s="17">
+        <v>15</v>
+      </c>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="9"/>
+      <c r="N17" s="9"/>
+      <c r="O17" s="9"/>
+      <c r="P17" s="9"/>
+      <c r="Q17" s="9"/>
+      <c r="R17" s="9"/>
+      <c r="S17" s="9"/>
+      <c r="T17" s="9"/>
+      <c r="U17" s="9"/>
+      <c r="V17" s="9"/>
+      <c r="W17" s="9"/>
+      <c r="X17" s="9"/>
+    </row>
+    <row r="18" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="14">
+        <v>18</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C18" s="11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D18" s="1"/>
+      <c r="G18" s="9">
+        <v>16</v>
+      </c>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="9"/>
+      <c r="N18" s="9"/>
+      <c r="O18" s="9"/>
+      <c r="P18" s="9"/>
+      <c r="Q18" s="9"/>
+      <c r="R18" s="9"/>
+      <c r="S18" s="9"/>
+      <c r="T18" s="9"/>
+      <c r="U18" s="9"/>
+      <c r="V18" s="9"/>
+      <c r="W18" s="9"/>
+      <c r="X18" s="9"/>
+    </row>
+    <row r="19" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>19</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C19" s="11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D19" s="1"/>
+      <c r="G19" s="17">
+        <v>17</v>
+      </c>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="9"/>
+      <c r="M19" s="9"/>
+      <c r="N19" s="9"/>
+      <c r="O19" s="9"/>
+      <c r="P19" s="9"/>
+      <c r="Q19" s="9"/>
+      <c r="R19" s="9"/>
+      <c r="S19" s="9"/>
+      <c r="T19" s="9"/>
+      <c r="U19" s="9"/>
+      <c r="V19" s="9"/>
+      <c r="W19" s="9"/>
+      <c r="X19" s="9"/>
+    </row>
+    <row r="20" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="14">
+        <v>20</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C20" s="11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D20" s="1"/>
+      <c r="G20" s="9">
+        <v>18</v>
+      </c>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="9"/>
+      <c r="M20" s="9"/>
+      <c r="N20" s="9"/>
+      <c r="O20" s="9"/>
+      <c r="P20" s="9"/>
+      <c r="Q20" s="9"/>
+      <c r="R20" s="9"/>
+      <c r="S20" s="9"/>
+      <c r="T20" s="9"/>
+      <c r="U20" s="9"/>
+      <c r="V20" s="9"/>
+      <c r="W20" s="9"/>
+      <c r="X20" s="9"/>
+    </row>
+    <row r="21" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <v>21</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C21" s="11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D21" s="1"/>
+      <c r="G21" s="17">
+        <v>19</v>
+      </c>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c r="L21" s="9"/>
+      <c r="M21" s="9"/>
+      <c r="N21" s="9"/>
+      <c r="O21" s="9"/>
+      <c r="P21" s="9"/>
+      <c r="Q21" s="9"/>
+      <c r="R21" s="9"/>
+      <c r="S21" s="9"/>
+      <c r="T21" s="9"/>
+      <c r="U21" s="9"/>
+      <c r="V21" s="9"/>
+      <c r="W21" s="9"/>
+      <c r="X21" s="9"/>
+    </row>
+    <row r="22" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="14">
+        <v>22</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22" s="11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D22" s="1"/>
+      <c r="G22" s="9">
+        <v>20</v>
+      </c>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="9"/>
+      <c r="M22" s="9"/>
+      <c r="N22" s="9"/>
+      <c r="O22" s="9"/>
+      <c r="P22" s="9"/>
+      <c r="Q22" s="9"/>
+      <c r="R22" s="9"/>
+      <c r="S22" s="9"/>
+      <c r="T22" s="9"/>
+      <c r="U22" s="9"/>
+      <c r="V22" s="9"/>
+      <c r="W22" s="9"/>
+      <c r="X22" s="9"/>
+    </row>
+    <row r="23" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
+        <v>23</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C23" s="11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D23" s="1"/>
+      <c r="G23" s="17">
+        <v>21</v>
+      </c>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="9"/>
+      <c r="M23" s="9"/>
+      <c r="N23" s="9"/>
+      <c r="O23" s="9"/>
+      <c r="P23" s="9"/>
+      <c r="Q23" s="9"/>
+      <c r="R23" s="9"/>
+      <c r="S23" s="9"/>
+      <c r="T23" s="9"/>
+      <c r="U23" s="9"/>
+      <c r="V23" s="9"/>
+      <c r="W23" s="9"/>
+      <c r="X23" s="9"/>
+    </row>
+    <row r="24" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="14">
+        <v>24</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C24" s="11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D24" s="1"/>
+      <c r="G24" s="9">
+        <v>22</v>
+      </c>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="9"/>
+      <c r="M24" s="9"/>
+      <c r="N24" s="9"/>
+      <c r="O24" s="9"/>
+      <c r="P24" s="9"/>
+      <c r="Q24" s="9"/>
+      <c r="R24" s="9"/>
+      <c r="S24" s="9"/>
+      <c r="T24" s="9"/>
+      <c r="U24" s="9"/>
+      <c r="V24" s="9"/>
+      <c r="W24" s="9"/>
+      <c r="X24" s="9"/>
+    </row>
+    <row r="25" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
+        <v>25</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C25" s="11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D25" s="1"/>
+      <c r="G25" s="17">
+        <v>23</v>
+      </c>
+      <c r="H25" s="9"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c r="L25" s="9"/>
+      <c r="M25" s="9"/>
+      <c r="N25" s="9"/>
+      <c r="O25" s="9"/>
+      <c r="P25" s="9"/>
+      <c r="Q25" s="9"/>
+      <c r="R25" s="9"/>
+      <c r="S25" s="9"/>
+      <c r="T25" s="9"/>
+      <c r="U25" s="9"/>
+      <c r="V25" s="9"/>
+      <c r="W25" s="9"/>
+      <c r="X25" s="9"/>
+    </row>
+    <row r="26" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="14">
+        <v>26</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C26" s="11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D26" s="1"/>
+      <c r="G26" s="9">
+        <v>24</v>
+      </c>
+      <c r="H26" s="9"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c r="L26" s="9"/>
+      <c r="M26" s="9"/>
+      <c r="N26" s="9"/>
+      <c r="O26" s="9"/>
+      <c r="P26" s="9"/>
+      <c r="Q26" s="9"/>
+      <c r="R26" s="9"/>
+      <c r="S26" s="9"/>
+      <c r="T26" s="9"/>
+      <c r="U26" s="9"/>
+      <c r="V26" s="9"/>
+      <c r="W26" s="9"/>
+      <c r="X26" s="9"/>
+    </row>
+    <row r="27" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
+        <v>27</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C27" s="11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D27" s="1"/>
+      <c r="G27" s="17">
+        <v>25</v>
+      </c>
+      <c r="H27" s="9"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c r="L27" s="9"/>
+      <c r="M27" s="9"/>
+      <c r="N27" s="9"/>
+      <c r="O27" s="9"/>
+      <c r="P27" s="9"/>
+      <c r="Q27" s="9"/>
+      <c r="R27" s="9"/>
+      <c r="S27" s="9"/>
+      <c r="T27" s="9"/>
+      <c r="U27" s="9"/>
+      <c r="V27" s="9"/>
+      <c r="W27" s="9"/>
+      <c r="X27" s="9"/>
+    </row>
+    <row r="28" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="14">
+        <v>28</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28" s="11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D28" s="1"/>
+      <c r="G28" s="9">
+        <v>26</v>
+      </c>
+      <c r="H28" s="9"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+      <c r="L28" s="9"/>
+      <c r="M28" s="9"/>
+      <c r="N28" s="9"/>
+      <c r="O28" s="9"/>
+      <c r="P28" s="9"/>
+      <c r="Q28" s="9"/>
+      <c r="R28" s="9"/>
+      <c r="S28" s="9"/>
+      <c r="T28" s="9"/>
+      <c r="U28" s="9"/>
+      <c r="V28" s="9"/>
+      <c r="W28" s="9"/>
+      <c r="X28" s="9"/>
+    </row>
+    <row r="29" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
+        <v>29</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C29" s="11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D29" s="1"/>
+      <c r="G29" s="17">
+        <v>27</v>
+      </c>
+      <c r="H29" s="9"/>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+      <c r="L29" s="9"/>
+      <c r="M29" s="9"/>
+      <c r="N29" s="9"/>
+      <c r="O29" s="9"/>
+      <c r="P29" s="9"/>
+      <c r="Q29" s="9"/>
+      <c r="R29" s="9"/>
+      <c r="S29" s="9"/>
+      <c r="T29" s="9"/>
+      <c r="U29" s="9"/>
+      <c r="V29" s="9"/>
+      <c r="W29" s="9"/>
+      <c r="X29" s="9"/>
+    </row>
+    <row r="30" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="14">
+        <v>30</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C30" s="11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D30" s="1"/>
+      <c r="G30" s="9">
+        <v>28</v>
+      </c>
+      <c r="H30" s="9"/>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+      <c r="L30" s="9"/>
+      <c r="M30" s="9"/>
+      <c r="N30" s="9"/>
+      <c r="O30" s="9"/>
+      <c r="P30" s="9"/>
+      <c r="Q30" s="9"/>
+      <c r="R30" s="9"/>
+      <c r="S30" s="9"/>
+      <c r="T30" s="9"/>
+      <c r="U30" s="9"/>
+      <c r="V30" s="9"/>
+      <c r="W30" s="9"/>
+      <c r="X30" s="9"/>
+    </row>
+    <row r="31" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
+        <v>31</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C31" s="11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D31" s="1"/>
+      <c r="G31" s="17">
+        <v>29</v>
+      </c>
+      <c r="H31" s="9"/>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
+      <c r="L31" s="9"/>
+      <c r="M31" s="9"/>
+      <c r="N31" s="9"/>
+      <c r="O31" s="9"/>
+      <c r="P31" s="9"/>
+      <c r="Q31" s="9"/>
+      <c r="R31" s="9"/>
+      <c r="S31" s="9"/>
+      <c r="T31" s="9"/>
+      <c r="U31" s="9"/>
+      <c r="V31" s="9"/>
+      <c r="W31" s="9"/>
+      <c r="X31" s="9"/>
+    </row>
+    <row r="32" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="14">
+        <v>32</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C32" s="11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D32" s="1"/>
+      <c r="G32" s="9">
+        <v>30</v>
+      </c>
+      <c r="H32" s="9"/>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
+      <c r="L32" s="9"/>
+      <c r="M32" s="9"/>
+      <c r="N32" s="9"/>
+      <c r="O32" s="9"/>
+      <c r="P32" s="9"/>
+      <c r="Q32" s="9"/>
+      <c r="R32" s="9"/>
+      <c r="S32" s="9"/>
+      <c r="T32" s="9"/>
+      <c r="U32" s="9"/>
+      <c r="V32" s="9"/>
+      <c r="W32" s="9"/>
+      <c r="X32" s="9"/>
+    </row>
+    <row r="33" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="3">
+        <v>33</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C33" s="11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D33" s="1"/>
+      <c r="G33" s="17">
+        <v>31</v>
+      </c>
+      <c r="H33" s="9"/>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
+      <c r="L33" s="9"/>
+      <c r="M33" s="9"/>
+      <c r="N33" s="9"/>
+      <c r="O33" s="9"/>
+      <c r="P33" s="9"/>
+      <c r="Q33" s="9"/>
+      <c r="R33" s="9"/>
+      <c r="S33" s="9"/>
+      <c r="T33" s="9"/>
+      <c r="U33" s="9"/>
+      <c r="V33" s="9"/>
+      <c r="W33" s="9"/>
+      <c r="X33" s="9"/>
+    </row>
+    <row r="34" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="14">
+        <v>34</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C34" s="11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D34" s="1"/>
+      <c r="G34" s="9">
+        <v>32</v>
+      </c>
+      <c r="H34" s="9"/>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
+      <c r="L34" s="9"/>
+      <c r="M34" s="9"/>
+      <c r="N34" s="9"/>
+      <c r="O34" s="9"/>
+      <c r="P34" s="9"/>
+      <c r="Q34" s="9"/>
+      <c r="R34" s="9"/>
+      <c r="S34" s="9"/>
+      <c r="T34" s="9"/>
+      <c r="U34" s="9"/>
+      <c r="V34" s="9"/>
+      <c r="W34" s="9"/>
+      <c r="X34" s="9"/>
+    </row>
+    <row r="35" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="3">
+        <v>35</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C35" s="11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D35" s="1"/>
+      <c r="G35" s="17">
+        <v>33</v>
+      </c>
+      <c r="H35" s="9"/>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
+      <c r="L35" s="9"/>
+      <c r="M35" s="9"/>
+      <c r="N35" s="9"/>
+      <c r="O35" s="9"/>
+      <c r="P35" s="9"/>
+      <c r="Q35" s="9"/>
+      <c r="R35" s="9"/>
+      <c r="S35" s="9"/>
+      <c r="T35" s="9"/>
+      <c r="U35" s="9"/>
+      <c r="V35" s="9"/>
+      <c r="W35" s="9"/>
+      <c r="X35" s="9"/>
+    </row>
+    <row r="36" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="14">
+        <v>36</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C36" s="11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D36" s="1"/>
+      <c r="G36" s="9">
+        <v>34</v>
+      </c>
+      <c r="H36" s="9"/>
+    </row>
+    <row r="37" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
+        <v>37</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C37" s="11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D37" s="1"/>
+      <c r="G37" s="17">
+        <v>35</v>
+      </c>
+      <c r="H37" s="9"/>
+    </row>
+    <row r="38" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="14">
+        <v>38</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C38" s="11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D38" s="1"/>
+      <c r="G38" s="9">
+        <v>36</v>
+      </c>
+      <c r="H38" s="9"/>
+    </row>
+    <row r="39" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="3">
+        <v>39</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C39" s="11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D39" s="1"/>
+      <c r="G39" s="17">
+        <v>37</v>
+      </c>
+      <c r="H39" s="9"/>
+    </row>
+    <row r="40" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="14">
+        <v>40</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C40" s="11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D40" s="1"/>
+      <c r="G40" s="9">
+        <v>38</v>
+      </c>
+      <c r="H40" s="9"/>
+    </row>
+    <row r="41" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="3">
+        <v>41</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C41" s="11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D41" s="1"/>
+      <c r="G41" s="17">
+        <v>39</v>
+      </c>
+      <c r="H41" s="9"/>
+    </row>
+    <row r="42" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="14">
+        <v>42</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C42" s="11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D42" s="1"/>
+      <c r="G42" s="9">
+        <v>40</v>
+      </c>
+      <c r="H42" s="9"/>
+    </row>
+    <row r="43" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="3">
+        <v>43</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C43" s="11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D43" s="1"/>
+      <c r="G43" s="17">
+        <v>41</v>
+      </c>
+      <c r="H43" s="9"/>
+    </row>
+    <row r="44" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="14">
+        <v>44</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C44" s="11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D44" s="1"/>
+      <c r="G44" s="9">
+        <v>42</v>
+      </c>
+      <c r="H44" s="9"/>
+    </row>
+    <row r="45" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="3">
+        <v>45</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C45" s="11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D45" s="1"/>
+      <c r="G45" s="17">
+        <v>43</v>
+      </c>
+      <c r="H45" s="9"/>
+    </row>
+    <row r="46" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="14">
+        <v>46</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C46" s="11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D46" s="1"/>
+      <c r="G46" s="9">
+        <v>44</v>
+      </c>
+      <c r="H46" s="9"/>
+    </row>
+    <row r="47" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="3">
+        <v>47</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C47" s="11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D47" s="1"/>
+      <c r="G47" s="17">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="48" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="14">
+        <v>48</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C48" s="11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D48" s="1"/>
+      <c r="G48" s="9">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="3">
+        <v>49</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C49" s="11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D49" s="1"/>
+      <c r="G49" s="17">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="14">
+        <v>50</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C50" s="11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D50" s="1"/>
+      <c r="G50" s="9">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="3">
+        <v>51</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C51" s="11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D51" s="1"/>
+      <c r="G51" s="17">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="14">
+        <v>52</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C52" s="11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D52" s="1"/>
+      <c r="G52" s="9">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="3">
+        <v>53</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C53" s="11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D53" s="1"/>
+      <c r="G53" s="17">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="14">
+        <v>54</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C54" s="11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D54" s="1"/>
+      <c r="G54" s="9">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="3">
+        <v>55</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C55" s="11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D55" s="1"/>
+      <c r="G55" s="17">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="14">
+        <v>56</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C56" s="11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D56" s="1"/>
+      <c r="G56" s="9">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="3">
+        <v>57</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C57" s="11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D57" s="1"/>
+      <c r="G57" s="17">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="14">
+        <v>58</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C58" s="11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D58" s="1"/>
+      <c r="G58" s="9">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="3">
+        <v>59</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C59" s="11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D59" s="1"/>
+      <c r="G59" s="17">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="14">
+        <v>60</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C60" s="11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D60" s="1"/>
+      <c r="G60" s="9">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" s="3">
+        <v>61</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C61" s="11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G61" s="17">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" s="14">
+        <v>62</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C62" s="11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G62" s="9">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" s="3">
+        <v>63</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C63" s="11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G63" s="17">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" s="14">
+        <v>64</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C64" s="11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G64" s="9">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" s="3">
+        <v>65</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C65" s="11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G65" s="17">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" s="14">
+        <v>66</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C66" s="11">
+        <f t="shared" ref="C66:C101" si="1">COUNTIF($G$3:$AE$100, A66)</f>
+        <v>1</v>
+      </c>
+      <c r="G66" s="9">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" s="3">
+        <v>67</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C67" s="11">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G67" s="17">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" s="14">
+        <v>68</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C68" s="11">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G68" s="9">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" s="3">
+        <v>69</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C69" s="11">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G69" s="17">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" s="14">
+        <v>70</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C70" s="11">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G70" s="9">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71" s="3">
+        <v>71</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C71" s="11">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G71" s="17">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72" s="14">
+        <v>72</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C72" s="11">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G72" s="9">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73" s="3">
+        <v>73</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C73" s="11">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G73" s="17">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74" s="14">
+        <v>74</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C74" s="11">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G74" s="9">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75" s="3">
+        <v>75</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C75" s="11">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D75" s="2"/>
+      <c r="G75" s="17">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76" s="14">
+        <v>76</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C76" s="11">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D76" s="2"/>
+      <c r="G76" s="9">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77" s="3">
+        <v>77</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C77" s="11">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G77" s="17">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78" s="14">
+        <v>78</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C78" s="11">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G78" s="9">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79" s="3">
+        <v>79</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C79" s="11">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G79" s="17">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80" s="14">
+        <v>80</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C80" s="11">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G80" s="9">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81" s="3">
+        <v>81</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C81" s="11">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G81" s="17">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82" s="14">
+        <v>82</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C82" s="11">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G82" s="9">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83" s="3">
+        <v>83</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C83" s="11">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G83" s="17">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84" s="14">
+        <v>84</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C84" s="11">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G84" s="9">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85" s="3">
+        <v>85</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C85" s="11">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G85" s="17">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86" s="14">
+        <v>86</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C86" s="11">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G86" s="9">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87" s="3">
+        <v>87</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C87" s="11">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G87" s="17">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88" s="14">
+        <v>88</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C88" s="11">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G88" s="9">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A89" s="3">
+        <v>89</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C89" s="11">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G89" s="17">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A90" s="14">
+        <v>90</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C90" s="11">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G90" s="9">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A91" s="3">
+        <v>91</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C91" s="11">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G91" s="17">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A92" s="14">
+        <v>92</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C92" s="11">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G92" s="9">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A93" s="3">
+        <v>93</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C93" s="11">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G93" s="17">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A94" s="14">
+        <v>94</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C94" s="11">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G94" s="9">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A95" s="3">
+        <v>95</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C95" s="11">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G95" s="17">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A96" s="14">
+        <v>96</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C96" s="11">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G96" s="9">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A97" s="3">
+        <v>97</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C97" s="11">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G97" s="17">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A98" s="14">
+        <v>98</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C98" s="11">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G98" s="9">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A99" s="3">
+        <v>99</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C99" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G99" s="17">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A100" s="14">
+        <v>100</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C100" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G100" s="9">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A101" s="3">
+        <v>101</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C101" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G101" s="17">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G102" s="9">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G103" s="17">
+        <v>101</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="C1:C1048576">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:C101">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>$C1=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5842EC9D-427F-4B4D-A13B-7DEBA3D84B01}">
   <dimension ref="A1:X101"/>
   <sheetViews>
